--- a/Protokolle/Projektplan.xlsx
+++ b/Protokolle/Projektplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19222"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="142" documentId="5BCCD0E192E5D0EADC749CB055EA41090FFDDDDF" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{1C1E75F9-3F5F-4D57-AEC9-D4B862D9D1F8}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="5BCCD0E192E5D0EADC749CB055EA41090FFDDDDF" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{F6685C63-E413-4E0B-AE17-BDDC2DA73279}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -90,25 +90,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -417,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D6" sqref="D6:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,283 +508,271 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>12</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>13</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>14</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>15</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>16</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>17</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>18</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>20</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>21</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>22</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>23</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>24</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D22:H23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H31"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="D14:H15"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="D18:H19"/>
-    <mergeCell ref="D20:H21"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="C24:C25"/>
@@ -721,6 +789,18 @@
     <mergeCell ref="D8:H9"/>
     <mergeCell ref="D10:H11"/>
     <mergeCell ref="D24:H25"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="D14:H15"/>
+    <mergeCell ref="D16:H17"/>
+    <mergeCell ref="D18:H19"/>
+    <mergeCell ref="D20:H21"/>
+    <mergeCell ref="D22:H23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Protokolle/Projektplan.xlsx
+++ b/Protokolle/Projektplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19222"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="149" documentId="5BCCD0E192E5D0EADC749CB055EA41090FFDDDDF" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{F6685C63-E413-4E0B-AE17-BDDC2DA73279}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="5BCCD0E192E5D0EADC749CB055EA41090FFDDDDF" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{8362C530-83ED-4449-BB41-BEB2752DE7D4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Milestone-Plan</t>
   </si>
@@ -24,6 +24,33 @@
   </si>
   <si>
     <t>Meilensteine</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Konstruktion Alpha</t>
+  </si>
+  <si>
+    <t>Erste Skills / Erstellung erste EV3-Programme</t>
+  </si>
+  <si>
+    <t>Erweiterung der ersten Programme</t>
+  </si>
+  <si>
+    <t>Schnittstelle zwischen AWS-Cloud und Brick</t>
+  </si>
+  <si>
+    <t>Befehlskombination</t>
+  </si>
+  <si>
+    <t>Befehlstestung   /   Konstruktion Omega</t>
+  </si>
+  <si>
+    <t>Beseitigung letzter Bugs   /   Fertigstellung der Dokumentation</t>
+  </si>
+  <si>
+    <t>Endpräsentation   /   Vorzeigen des fertigen Produkts</t>
   </si>
 </sst>
 </file>
@@ -156,40 +183,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H31"/>
+  <dimension ref="C3:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C28" sqref="C28:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D14" sqref="D14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,22 +556,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="1" t="s">
@@ -541,205 +589,221 @@
       <c r="C6" s="3">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="3">
         <v>13</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="3">
         <v>14</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="3">
         <v>15</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="3">
         <v>16</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="3">
         <v>17</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="3">
         <v>18</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="3">
         <v>20</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="D22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="3">
         <v>21</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="3">
         <v>22</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="3">
         <v>23</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -757,22 +821,43 @@
       <c r="C30" s="3">
         <v>24</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D22:H23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H31"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="D14:H15"/>
+    <mergeCell ref="D16:H17"/>
+    <mergeCell ref="D18:H19"/>
+    <mergeCell ref="D20:H21"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="C24:C25"/>
@@ -789,18 +874,6 @@
     <mergeCell ref="D8:H9"/>
     <mergeCell ref="D10:H11"/>
     <mergeCell ref="D24:H25"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="D14:H15"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="D18:H19"/>
-    <mergeCell ref="D20:H21"/>
-    <mergeCell ref="D22:H23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Protokolle/Projektplan.xlsx
+++ b/Protokolle/Projektplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19321"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="214" documentId="5BCCD0E192E5D0EADC749CB055EA41090FFDDDDF" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{8362C530-83ED-4449-BB41-BEB2752DE7D4}"/>
+  <xr:revisionPtr revIDLastSave="343" documentId="5BCCD0E192E5D0EADC749CB055EA41090FFDDDDF" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{67576D26-B05E-4A9C-85A4-0E591438C7E4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Milestone-Plan</t>
   </si>
@@ -26,31 +26,109 @@
     <t>Meilensteine</t>
   </si>
   <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Aktuelle Zustände:</t>
+  </si>
+  <si>
+    <t>Fertig</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
     <t>Konstruktion Alpha</t>
   </si>
   <si>
+    <t>Es soll ein simpler aber stabiler Roboter konstruiert werden der einfache Befehle (in mind. zwei Richtungen fahren können) ausführen kann.</t>
+  </si>
+  <si>
+    <t>Es wurde eine simple Konstruktion erstellt die den Anforderungen entspricht erstellt (ein CommandBrick mit zwei festverbauten Motoren und Rädern)</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
     <t>Erste Skills / Erstellung erste EV3-Programme</t>
   </si>
   <si>
+    <t>Es sollen simple Skills erstellt werden welche die Ansteuerung der Alexa demostrieren sollen</t>
+  </si>
+  <si>
+    <t>Es wurden simple Skills erstellt mit denen Alexa mittels Sprachbefehl angesteuert werden kann</t>
+  </si>
+  <si>
+    <t>Es sollen simple Programme erstellt werden mit denen ein Lego-Roboter der EV3-Reihe angesteuert werden kann</t>
+  </si>
+  <si>
+    <t>Es wurde ein simples Programm erstellt zur Anteuerung eines EV3-Roboters (Fahren in 4 Richtungen)</t>
+  </si>
+  <si>
     <t>Erweiterung der ersten Programme</t>
   </si>
   <si>
+    <t>Die simplen Skills sollen erweitert und optimiert werden</t>
+  </si>
+  <si>
+    <t>Es wird an der Erweiterung der Skills gearbeitet</t>
+  </si>
+  <si>
+    <t>In Arbeit</t>
+  </si>
+  <si>
+    <t>Es sollen komplexere Programme zur Ansteuerung der EV3-Roboter erstellt werden</t>
+  </si>
+  <si>
+    <t>Es wird an der Erweiterung des Programmes gearbeitet</t>
+  </si>
+  <si>
     <t>Schnittstelle zwischen AWS-Cloud und Brick</t>
   </si>
   <si>
+    <t>Es soll eine funktionierende Schnittstelle zwischen EV3 und Alexa eingerichtet werden, sodass der Roboter mittels Sprachbefehl gesteuert werden kann (e.g. "Alexa fahr vorwärts" und der Roboter fährt nach vorne)</t>
+  </si>
+  <si>
+    <t>Es wird derzeit für SNS und SQS (mögliche Schnittstelle) recherchiert und nach einer Implementationsmöglichkeit gesucht</t>
+  </si>
+  <si>
     <t>Befehlskombination</t>
   </si>
   <si>
+    <t>Eine Befehlskette soll ermöglicht werden (e.g. Alexa fahr. Vorwärts. Links drehen. Rückwärts") ohne dafür jeweils einen eigenen Skill ansprechen zu müssen</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
     <t>Befehlstestung   /   Konstruktion Omega</t>
   </si>
   <si>
+    <t>Eine Endkonstruktion soll erstellt werden, welche mehr Möglichkeiten für verschiedene Befehle bietet (e.g. "Alexa greif")</t>
+  </si>
+  <si>
+    <t>Die erweiterten Befehle sollen im Labor getestet und der Betreuerin vorgeführt werden</t>
+  </si>
+  <si>
     <t>Beseitigung letzter Bugs   /   Fertigstellung der Dokumentation</t>
   </si>
   <si>
+    <t>Bei der Testung eventuell aufgetretene Bugs sollen beseitigt werden</t>
+  </si>
+  <si>
+    <t>Die Dokumente (e.g. Anleitungen, diverse Protokolle) sollen zur Endabgabe vervollständigt und evtl. schön Formatiert werden.</t>
+  </si>
+  <si>
+    <t>Die Protokolle werden laufend aktuallisiert und die Anleitungen soweit es uns derzeit möglich ist geschrieben.</t>
+  </si>
+  <si>
     <t>Endpräsentation   /   Vorzeigen des fertigen Produkts</t>
+  </si>
+  <si>
+    <t>Für die Endpräsentation vorbereiten (PowerPoint etc. erstellen)</t>
+  </si>
+  <si>
+    <t>Der fertige Roboter soll sowohl im Labor der Betreuerin, als auch bei der Endpräsentation vorgezeigt werden</t>
   </si>
 </sst>
 </file>
@@ -74,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,18 +161,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFE7E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -118,11 +214,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -131,7 +227,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -139,29 +235,98 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -169,8 +334,66 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -183,60 +406,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,323 +804,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H32"/>
+  <dimension ref="C3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D14" sqref="D14:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:11" ht="15" customHeight="1">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="1" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="3:11" ht="15" customHeight="1">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="3">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="7">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="3">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="7"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="3:11" ht="45" customHeight="1">
+      <c r="C8" s="7">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="3">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="42.75" customHeight="1">
+      <c r="C9" s="7"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="C10" s="7">
         <v>14</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="7"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="7">
         <v>15</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="7"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="3:11" ht="60">
+      <c r="C14" s="7">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="3">
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="60">
+      <c r="C15" s="7"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="45.75" customHeight="1">
+      <c r="C16" s="7">
         <v>17</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="3">
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="3">
+      <c r="K16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="3">
+    </row>
+    <row r="17" spans="3:11" ht="42.75" customHeight="1">
+      <c r="C17" s="7"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="3"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="3">
+      <c r="J17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="3">
+      <c r="K17" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="7">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="3">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="3">
+      <c r="J18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="K18" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="61.5" customHeight="1">
+      <c r="C19" s="7"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="7">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="7"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="3:11" ht="60" customHeight="1">
+      <c r="C22" s="7">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="7"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="3:11" ht="45">
+      <c r="C24" s="7">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="45">
+      <c r="C25" s="7"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="7">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="7"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="3:11" ht="30">
+      <c r="C28" s="7">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="60">
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="30">
+      <c r="C30" s="7">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="56.25" customHeight="1">
+      <c r="C31" s="8"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D22:H23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H31"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="D14:H15"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="D18:H19"/>
-    <mergeCell ref="D20:H21"/>
+  <mergeCells count="52">
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="C3:K4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="C3:H4"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C20:C21"/>
@@ -874,6 +1306,18 @@
     <mergeCell ref="D8:H9"/>
     <mergeCell ref="D10:H11"/>
     <mergeCell ref="D24:H25"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="D14:H15"/>
+    <mergeCell ref="D16:H17"/>
+    <mergeCell ref="D18:H19"/>
+    <mergeCell ref="D20:H21"/>
+    <mergeCell ref="D22:H23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Protokolle/Projektplan.xlsx
+++ b/Protokolle/Projektplan.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="343" documentId="5BCCD0E192E5D0EADC749CB055EA41090FFDDDDF" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{67576D26-B05E-4A9C-85A4-0E591438C7E4}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D574789C-650B-4DDA-B088-9EC94B484A9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,93 +417,93 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,11 +811,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
@@ -818,7 +823,7 @@
     <col min="10" max="10" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="15" customHeight="1">
+    <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
@@ -831,7 +836,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="3:11" ht="15" customHeight="1">
+    <row r="4" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -842,422 +847,422 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="3:11">
-      <c r="C5" s="15" t="s">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
-      <c r="C6" s="7">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="29">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="3:11">
-      <c r="C7" s="7"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="3:11" ht="45" customHeight="1">
-      <c r="C8" s="7">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="29"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="3:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="29">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="42.75" customHeight="1">
-      <c r="C9" s="7"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="7">
+    <row r="9" spans="3:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="29"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="29">
         <v>14</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="C11" s="7"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="7">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="29">
         <v>15</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="3:11">
-      <c r="C13" s="7"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="3:11" ht="60">
-      <c r="C14" s="7">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="29"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C14" s="29">
         <v>16</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="10" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="60">
-      <c r="C15" s="7"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="10" t="s">
+    <row r="15" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C15" s="29"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="45.75" customHeight="1">
-      <c r="C16" s="7">
+    <row r="16" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="29">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="10" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="42.75" customHeight="1">
-      <c r="C17" s="7"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="10" t="s">
+    <row r="17" spans="3:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="29"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="7">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="29">
         <v>18</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="4" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="61.5" customHeight="1">
-      <c r="C19" s="7"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="29"/>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="7">
+    <row r="19" spans="3:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="29"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="29">
         <v>19</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="3:11">
-      <c r="C21" s="7"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="3:11" ht="60" customHeight="1">
-      <c r="C22" s="7">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="29"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="29">
         <v>20</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="4" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="30" t="s">
+      <c r="J22" s="27"/>
+      <c r="K22" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="7"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" spans="3:11" ht="45">
-      <c r="C24" s="7">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="29"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="29">
         <v>21</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="10" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="31" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="45">
-      <c r="C25" s="7"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="10" t="s">
+    <row r="25" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="29"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="3:11">
-      <c r="C26" s="7">
+      <c r="J25" s="3"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="29">
         <v>22</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="3:11">
-      <c r="C27" s="7"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="3:11" ht="30">
-      <c r="C28" s="7">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="29"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="29">
         <v>23</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="10" t="s">
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="31" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="60">
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="10" t="s">
+    <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C29" s="29"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="30">
-      <c r="C30" s="7">
+    <row r="30" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="29">
         <v>24</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="10" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="31" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="56.25" customHeight="1">
-      <c r="C31" s="8"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="12" t="s">
+    <row r="31" spans="3:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="32" t="s">
+      <c r="J31" s="4"/>
+      <c r="K31" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="3:11">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1266,44 +1271,12 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="C3:K4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H31"/>
     <mergeCell ref="D10:H11"/>
     <mergeCell ref="D24:H25"/>
     <mergeCell ref="D12:H13"/>
@@ -1312,12 +1285,44 @@
     <mergeCell ref="D18:H19"/>
     <mergeCell ref="D20:H21"/>
     <mergeCell ref="D22:H23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H31"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C3:K4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Protokolle/Projektplan.xlsx
+++ b/Protokolle/Projektplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D574789C-650B-4DDA-B088-9EC94B484A9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="5_{88B51F34-A060-4ED9-AA96-8CFEA41A6E9F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{2D726FCE-6AEF-482F-AAE1-621E72B40354}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,52 +79,52 @@
     <t>Es wird an der Erweiterung der Skills gearbeitet</t>
   </si>
   <si>
+    <t>Es sollen komplexere Programme zur Ansteuerung der EV3-Roboter erstellt werden</t>
+  </si>
+  <si>
+    <t>Es wird an der Erweiterung des Programmes gearbeitet</t>
+  </si>
+  <si>
+    <t>Schnittstelle zwischen AWS-Cloud und Brick</t>
+  </si>
+  <si>
+    <t>Es soll eine funktionierende Schnittstelle zwischen EV3 und Alexa eingerichtet werden, sodass der Roboter mittels Sprachbefehl gesteuert werden kann (e.g. "Alexa fahr vorwärts" und der Roboter fährt nach vorne)</t>
+  </si>
+  <si>
+    <t>Es wird derzeit für SNS und SQS (mögliche Schnittstelle) recherchiert und nach einer Implementationsmöglichkeit gesucht</t>
+  </si>
+  <si>
+    <t>Befehlskombination</t>
+  </si>
+  <si>
+    <t>Eine Befehlskette soll ermöglicht werden (e.g. Alexa fahr. Vorwärts. Links drehen. Rückwärts") ohne dafür jeweils einen eigenen Skill ansprechen zu müssen</t>
+  </si>
+  <si>
+    <t>Viel weg</t>
+  </si>
+  <si>
+    <t>Befehlstestung   /   Konstruktion Omega</t>
+  </si>
+  <si>
+    <t>Eine Endkonstruktion soll erstellt werden, welche mehr Möglichkeiten für verschiedene Befehle bietet (e.g. "Alexa greif")</t>
+  </si>
+  <si>
+    <t>Die erweiterten Befehle sollen im Labor getestet und der Betreuerin vorgeführt werden</t>
+  </si>
+  <si>
+    <t>Beseitigung letzter Bugs   /   Fertigstellung der Dokumentation</t>
+  </si>
+  <si>
+    <t>Bei der Testung eventuell aufgetretene Bugs sollen beseitigt werden</t>
+  </si>
+  <si>
+    <t>Die Dokumente (e.g. Anleitungen, diverse Protokolle) sollen zur Endabgabe vervollständigt und evtl. schön Formatiert werden.</t>
+  </si>
+  <si>
+    <t>Die Protokolle werden laufend aktuallisiert und die Anleitungen soweit es uns derzeit möglich ist geschrieben.</t>
+  </si>
+  <si>
     <t>In Arbeit</t>
-  </si>
-  <si>
-    <t>Es sollen komplexere Programme zur Ansteuerung der EV3-Roboter erstellt werden</t>
-  </si>
-  <si>
-    <t>Es wird an der Erweiterung des Programmes gearbeitet</t>
-  </si>
-  <si>
-    <t>Schnittstelle zwischen AWS-Cloud und Brick</t>
-  </si>
-  <si>
-    <t>Es soll eine funktionierende Schnittstelle zwischen EV3 und Alexa eingerichtet werden, sodass der Roboter mittels Sprachbefehl gesteuert werden kann (e.g. "Alexa fahr vorwärts" und der Roboter fährt nach vorne)</t>
-  </si>
-  <si>
-    <t>Es wird derzeit für SNS und SQS (mögliche Schnittstelle) recherchiert und nach einer Implementationsmöglichkeit gesucht</t>
-  </si>
-  <si>
-    <t>Befehlskombination</t>
-  </si>
-  <si>
-    <t>Eine Befehlskette soll ermöglicht werden (e.g. Alexa fahr. Vorwärts. Links drehen. Rückwärts") ohne dafür jeweils einen eigenen Skill ansprechen zu müssen</t>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
-    <t>Befehlstestung   /   Konstruktion Omega</t>
-  </si>
-  <si>
-    <t>Eine Endkonstruktion soll erstellt werden, welche mehr Möglichkeiten für verschiedene Befehle bietet (e.g. "Alexa greif")</t>
-  </si>
-  <si>
-    <t>Die erweiterten Befehle sollen im Labor getestet und der Betreuerin vorgeführt werden</t>
-  </si>
-  <si>
-    <t>Beseitigung letzter Bugs   /   Fertigstellung der Dokumentation</t>
-  </si>
-  <si>
-    <t>Bei der Testung eventuell aufgetretene Bugs sollen beseitigt werden</t>
-  </si>
-  <si>
-    <t>Die Dokumente (e.g. Anleitungen, diverse Protokolle) sollen zur Endabgabe vervollständigt und evtl. schön Formatiert werden.</t>
-  </si>
-  <si>
-    <t>Die Protokolle werden laufend aktuallisiert und die Anleitungen soweit es uns derzeit möglich ist geschrieben.</t>
   </si>
   <si>
     <t>Endpräsentation   /   Vorzeigen des fertigen Produkts</t>
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,12 +190,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
+        <fgColor rgb="FFC9C9C9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -376,21 +376,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -411,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,43 +410,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,10 +454,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -504,6 +471,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,11 +793,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
@@ -823,446 +805,446 @@
     <col min="10" max="10" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="3:11" ht="15" customHeight="1">
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="3:11" ht="15" customHeight="1">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="7" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="29">
+    <row r="6" spans="3:11">
+      <c r="C6" s="23">
         <v>12</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="29"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8" spans="3:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="29">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="3:11" ht="45" customHeight="1">
+      <c r="C8" s="23">
         <v>13</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="27" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="29"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="29">
+    <row r="9" spans="3:11" ht="42.75" customHeight="1">
+      <c r="C9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="C10" s="23">
         <v>14</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="29"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="29">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="23">
         <v>15</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="29"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="29">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="23"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="3:11" ht="60">
+      <c r="C14" s="23">
         <v>16</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C15" s="29"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+    <row r="15" spans="3:11" ht="60">
+      <c r="C15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="29">
+    <row r="16" spans="3:11" ht="45.75" customHeight="1">
+      <c r="C16" s="23">
         <v>17</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="42.75" customHeight="1">
+      <c r="C17" s="23"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="3:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="29"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="23">
+        <v>18</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="61.5" customHeight="1">
+      <c r="C19" s="23"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="23">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="29">
-        <v>18</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="3:11" ht="60" customHeight="1">
+      <c r="C22" s="23">
+        <v>20</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="23"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="3:11" ht="45">
+      <c r="C24" s="23">
+        <v>21</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="45">
+      <c r="C25" s="23"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="23">
         <v>22</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="27" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="23"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="3:11" ht="30">
+      <c r="C28" s="23">
         <v>23</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="D28" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="60">
+      <c r="C29" s="23"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="30">
+      <c r="C30" s="23">
         <v>24</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="29"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="29">
-        <v>19</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="29"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="29">
-        <v>20</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="29"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C24" s="29">
-        <v>21</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C25" s="29"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="29">
-        <v>22</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="29"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="29">
-        <v>23</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="29"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="29">
-        <v>24</v>
-      </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="30"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="K30" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="56.25" customHeight="1">
+      <c r="C31" s="24"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1270,7 +1252,7 @@
       <c r="H32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="53">
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
@@ -1323,6 +1305,7 @@
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K24:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
